--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244562C9-5BEB-4572-B90C-5130FD794232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="module1" sheetId="1" r:id="rId1"/>
     <sheet name="CommonData" sheetId="6" r:id="rId2"/>
-    <sheet name="module2" sheetId="5" r:id="rId3"/>
+    <sheet name="AddDoctor" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>TestCase</t>
   </si>
@@ -48,15 +47,9 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://localhost:8888</t>
-  </si>
-  <si>
     <t>userName</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -67,13 +60,73 @@
   </si>
   <si>
     <t>timeout</t>
+  </si>
+  <si>
+    <t>http://rmgtestingserver/domain/Hospital_Management_System/</t>
+  </si>
+  <si>
+    <t>shyamprasad@gmail.com</t>
+  </si>
+  <si>
+    <t>shyamprasad</t>
+  </si>
+  <si>
+    <t>AdminUn</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Test@12345</t>
+  </si>
+  <si>
+    <t>AdminPwd</t>
+  </si>
+  <si>
+    <t>docname</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>clinicaddress</t>
+  </si>
+  <si>
+    <t>Gadag</t>
+  </si>
+  <si>
+    <t>docfees</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>doccontact</t>
+  </si>
+  <si>
+    <t>9999888555</t>
+  </si>
+  <si>
+    <t>docemail</t>
+  </si>
+  <si>
+    <t>npass</t>
+  </si>
+  <si>
+    <t>cfpass</t>
+  </si>
+  <si>
+    <t>abc15@gmail.com</t>
+  </si>
+  <si>
+    <t>Arun123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +176,20 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -144,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -168,13 +235,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -187,69 +267,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -268,33 +285,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -311,39 +316,35 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,7 +403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -437,7 +438,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -614,14 +615,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -641,232 +642,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="11" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="12"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="12" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="12"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="12" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="15"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="15"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="15"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="15"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="15"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -878,187 +879,160 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F624DA16-99DA-4D61-9A30-3B4D6703E415}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="10.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="B2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B3" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="25" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="25">
-        <v>10</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="12"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A5:A6"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244562C9-5BEB-4572-B90C-5130FD794232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="module1" sheetId="1" r:id="rId1"/>
-    <sheet name="CommonData" sheetId="6" r:id="rId2"/>
-    <sheet name="module2" sheetId="5" r:id="rId3"/>
+    <sheet name="CommonData" sheetId="6" r:id="rId1"/>
+    <sheet name="DoctorDetails" sheetId="7" r:id="rId2"/>
+    <sheet name="module1" sheetId="1" r:id="rId3"/>
+    <sheet name="module2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>TestCase</t>
   </si>
@@ -48,9 +48,6 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://localhost:8888</t>
-  </si>
-  <si>
     <t>userName</t>
   </si>
   <si>
@@ -67,13 +64,88 @@
   </si>
   <si>
     <t>timeout</t>
+  </si>
+  <si>
+    <t>pUserName</t>
+  </si>
+  <si>
+    <t>pPassword</t>
+  </si>
+  <si>
+    <t>shyamprasad@gmail.com</t>
+  </si>
+  <si>
+    <t>shyamprasad</t>
+  </si>
+  <si>
+    <t>http://rmgtestingserver/domain/Hospital_Management_System/index.html</t>
+  </si>
+  <si>
+    <t>dUserName</t>
+  </si>
+  <si>
+    <t>girish@gmail.com</t>
+  </si>
+  <si>
+    <t>dPassword</t>
+  </si>
+  <si>
+    <t>girish@12345</t>
+  </si>
+  <si>
+    <t>aUserName</t>
+  </si>
+  <si>
+    <t>aPassword</t>
+  </si>
+  <si>
+    <t>Test@12345</t>
+  </si>
+  <si>
+    <t>Doctor Specialization</t>
+  </si>
+  <si>
+    <t>Doctor Name</t>
+  </si>
+  <si>
+    <t>Doctor Clinic Address</t>
+  </si>
+  <si>
+    <t>Doctor Consultancy Fees</t>
+  </si>
+  <si>
+    <t>Doctor Contact no</t>
+  </si>
+  <si>
+    <t>Doctor Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Dermatologist</t>
+  </si>
+  <si>
+    <t>Dr.Girish</t>
+  </si>
+  <si>
+    <t>Mysore</t>
+  </si>
+  <si>
+    <t>girish</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>95902</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +195,31 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF858585"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -268,10 +365,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,6 +431,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -342,8 +448,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,7 +510,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -437,7 +545,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -614,21 +722,217 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="70.5703125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="16384" width="9.140625" style="25" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2" display="shyamprasad@gmail.com"/>
+    <hyperlink ref="B1" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.140625" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
@@ -640,29 +944,29 @@
     <col min="8" max="13" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
       <c r="N1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
@@ -682,7 +986,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="24"/>
       <c r="B3" s="20" t="s">
         <v>5</v>
@@ -702,7 +1006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="22"/>
       <c r="B4" s="19"/>
       <c r="C4" s="3"/>
@@ -718,7 +1022,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="23"/>
       <c r="B5" s="20"/>
       <c r="C5" s="14"/>
@@ -736,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -747,7 +1051,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -758,7 +1062,7 @@
       <c r="H14" s="16"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -769,7 +1073,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -780,7 +1084,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -791,7 +1095,7 @@
       <c r="H17" s="16"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -802,7 +1106,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -813,7 +1117,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -824,7 +1128,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="15"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -835,7 +1139,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="15"/>
       <c r="B22" s="18"/>
       <c r="C22" s="13"/>
@@ -846,7 +1150,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="15"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -857,7 +1161,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -877,104 +1181,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F624DA16-99DA-4D61-9A30-3B4D6703E415}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="25">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
+    <row r="2" spans="1:14">
+      <c r="A2" s="34"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -989,8 +1233,8 @@
       <c r="M2" s="9"/>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+    <row r="3" spans="1:14">
+      <c r="A3" s="34"/>
       <c r="B3" s="8"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1005,7 +1249,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1021,8 +1265,8 @@
       <c r="M4" s="10"/>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:14">
+      <c r="A5" s="34"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
@@ -1037,8 +1281,8 @@
       <c r="M5" s="10"/>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:14">
+      <c r="A6" s="34"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="5"/>

--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CommonData" sheetId="6" r:id="rId1"/>
     <sheet name="DoctorDetails" sheetId="7" r:id="rId2"/>
-    <sheet name="module1" sheetId="1" r:id="rId3"/>
-    <sheet name="module2" sheetId="5" r:id="rId4"/>
+    <sheet name="DoctorsTable" sheetId="8" r:id="rId3"/>
+    <sheet name="module1" sheetId="1" r:id="rId4"/>
+    <sheet name="module2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -436,6 +437,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,7 +450,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -849,7 +850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -911,7 +912,7 @@
       <c r="A7" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -925,6 +926,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N24"/>
   <sheetViews>
@@ -948,20 +963,20 @@
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
       <c r="N1" s="11" t="s">
         <v>2</v>
       </c>
@@ -1181,7 +1196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -1199,26 +1214,26 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="34"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1234,7 +1249,7 @@
       <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="8"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1266,7 +1281,7 @@
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
@@ -1282,7 +1297,7 @@
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="5"/>
